--- a/raw_sheet.xlsx
+++ b/raw_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B7FEC9-F4D5-4BFE-B425-9FAD34267C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE4FE41-5804-4214-8894-7A38777220C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{429E4DBE-0030-426B-BDAB-11C02CE04274}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
   <si>
     <t>Television Commercials</t>
   </si>
@@ -483,6 +484,81 @@
   </si>
   <si>
     <t>Classes/templates</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Non-linear</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>GLM</t>
+  </si>
+  <si>
+    <t>Simple Linear Regression</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Multiple Linear Regression</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Ridge/Lasso Regression</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Kernel SVM</t>
+  </si>
+  <si>
+    <t>Polynomial Regression</t>
+  </si>
+  <si>
+    <t>Poisson Regression</t>
+  </si>
+  <si>
+    <t>Gamma Regression</t>
+  </si>
+  <si>
+    <t>Introduction to NLP</t>
+  </si>
+  <si>
+    <t>Text Preprocessing</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>Stop-word Removal</t>
+  </si>
+  <si>
+    <t>Stemming and Lemmatization</t>
+  </si>
+  <si>
+    <t>Part-of-Speech (POS) Tagging</t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
+  </si>
+  <si>
+    <t>Bag of Words (BoW)</t>
+  </si>
+  <si>
+    <t>Term Frequency-Inverse Document Frequency (TF-IDF)</t>
   </si>
 </sst>
 </file>
@@ -616,15 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,6 +704,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,8 +721,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
     </mruColors>
   </colors>
@@ -958,291 +1034,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5FD7C-7CB3-4424-8AEA-BACD2195E6CA}">
-  <dimension ref="F2:J25"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I14"/>
+      <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F2" s="18" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F3" s="22" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F4" s="23" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="22" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F6" s="23" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F7" s="22" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F8" s="23" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F9" s="22" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F10" s="23" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F11" s="22" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F12" s="23" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F13" s="22" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F14" s="23" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="6:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="G15" s="14" t="s">
+    <row r="15" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="F15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="G16" s="14" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="G17" s="14" t="s">
+    <row r="17" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G18" s="14" t="s">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="6:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="G19" s="14" t="s">
+    <row r="19" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="G20" s="14" t="s">
+    <row r="20" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F21" s="13" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="6:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="G22" s="14" t="s">
+    <row r="22" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="6:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="G23" s="14" t="s">
+    <row r="23" spans="5:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="14" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G25" s="14" t="s">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1256,7 +1387,7 @@
   <dimension ref="F2:P24"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1694,4 +1825,150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1799B7-CEB1-42D7-90B6-D18F8F8CF1F0}">
+  <dimension ref="F2:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>